--- a/customerqueue/tgtr1.xlsx
+++ b/customerqueue/tgtr1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\customerqueue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7A797-8365-477E-AE34-762BC79D0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="6384"/>
+    <workbookView xWindow="5220" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rdt1.xlsx" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -46,13 +52,22 @@
     <t>Theresa Garibaldi</t>
   </si>
   <si>
-    <t>Lima, Peru</t>
+    <t>Chicago, Illinois, United States of America</t>
+  </si>
+  <si>
+    <t>$300 to $499</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,9 +546,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -585,6 +601,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -632,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,9 +684,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,6 +736,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,14 +928,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -920,14 +976,14 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>4000</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
         <v>45076</v>
       </c>
-      <c r="E2" s="1">
-        <v>45088</v>
+      <c r="E2" s="2">
+        <v>45080</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -938,8 +994,8 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -948,5 +1004,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/customerqueue/tgtr1.xlsx
+++ b/customerqueue/tgtr1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\customerqueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7A797-8365-477E-AE34-762BC79D0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559B3A3-7EBA-4341-9F65-C16481003448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>1 Room</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -549,7 +552,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,7 +935,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,8 +991,8 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
       <c r="H2">
         <v>2</v>

--- a/customerqueue/tgtr1.xlsx
+++ b/customerqueue/tgtr1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\customerqueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559B3A3-7EBA-4341-9F65-C16481003448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC62487-C8B8-4AFA-9240-BFBC3E1BBDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rdt1.xlsx" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -62,14 +62,27 @@
   </si>
   <si>
     <t>1 Room</t>
+  </si>
+  <si>
+    <t>New York, New York, United States of America</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Portland, Oregon, United States of America</t>
+  </si>
+  <si>
+    <t>Less than $99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -551,8 +564,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,10 +995,10 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45076</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>45080</v>
       </c>
       <c r="F2">
@@ -1002,8 +1015,62 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45036</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45039</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45092</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45094</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/customerqueue/tgtr1.xlsx
+++ b/customerqueue/tgtr1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\customerqueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC62487-C8B8-4AFA-9240-BFBC3E1BBDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A002A0-6100-4D70-AD82-849FCF9B4911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rdt1.xlsx" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -565,7 +565,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1060,7 @@
         <v>45094</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
